--- a/Guatemala/Glosario Ranking Muni_2018_GT.xlsx
+++ b/Guatemala/Glosario Ranking Muni_2018_GT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-MUNI\Guatemala\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F15A94-5F45-4E4D-AD7E-86D37D333AC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7B741A-E4D1-4CE7-958A-31705D79E9DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1D4769EB-C3C3-42EF-8AF0-E54E6B5F48E8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>IGA</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Índice de Información a la Ciudadanía</t>
   </si>
   <si>
-    <t>Índice de Servicios Públicos</t>
-  </si>
-  <si>
     <t>Índice de Gestión Financiera</t>
   </si>
   <si>
@@ -81,10 +78,110 @@
     <t xml:space="preserve">El índice general está compuesto por seis índices temáticos que contienen indicadores con igual ponderación, reflejando la misma importancia de cada uno de ellos. Es un resumen de los 31indicadores que ubica a las municipalidades que tienen o están más cerca de las mejores prácticas en todos los temas analizados, y sintetiza el trabajo municipal en materia de gestión para la gobernabilidad. </t>
   </si>
   <si>
-    <t>IGGM</t>
-  </si>
-  <si>
     <t xml:space="preserve">Índice General de Gestión Municipal </t>
+  </si>
+  <si>
+    <t>1. Número de reuniones del COMUDE en el año de la medición</t>
+  </si>
+  <si>
+    <t>Indicadores</t>
+  </si>
+  <si>
+    <t>2. Participación de Alcaldes, Concejales y Síndicos determinados o designados en el COMUDE</t>
+  </si>
+  <si>
+    <t>3. Participación de organizaciones de jóvenes, mujeres, pueblos mayas, xincas, garífunas, y otras organizaciones en el COMUDE</t>
+  </si>
+  <si>
+    <t>4. Representatividad territorial del COMUDE</t>
+  </si>
+  <si>
+    <t>5. Funcionamiento del COMUDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muestra la capacidad de los municipios para proporcionar información a la ciudadanía por medio del proceso de rendición de cuentas ante el COMUDE y de la información pública que está disponible. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Rendición de cuentas cuatrimestrales y anual al COMUDE, enfocadas a resultados </t>
+  </si>
+  <si>
+    <t>2. Información Presupuestaria y otra información brindada a la ciudadanía, y disponible en medios locales de información</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Relación de monto contratado a través de Guatecompras y el total del presupuesto de egresos. </t>
+  </si>
+  <si>
+    <t>3. Información pública de oficio actualizada, y disponible en todo momento, de acuerdo a la Ley de Acceso a la Información Pública (LAIP) y uso de internet</t>
+  </si>
+  <si>
+    <t>Índice de Gestión de Servicios Públicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Existencia de elementos de atención municipal orientada al ciuadano </t>
+  </si>
+  <si>
+    <t>2. Gestión del recurso humano</t>
+  </si>
+  <si>
+    <t>3. Existencia de oficinas municipales con instrumentos de gestión</t>
+  </si>
+  <si>
+    <t>Mide la eficiencia en el uso de los recursos financieros que las municipalidades reciben del gobierno central, los que recaudan por sí mismos y otras fuentes de financiamiento en función de la forma y el destino en que se efectúa el gasto.</t>
+  </si>
+  <si>
+    <t>3. Indicador de la existencia de oficinas municipales con instrumentos de gestión</t>
+  </si>
+  <si>
+    <t>2. Indicador Gestión del recurso humano</t>
+  </si>
+  <si>
+    <t>1. Indicador de la existencia de elementos de atención municipal orientada al ciudadano</t>
+  </si>
+  <si>
+    <t>1. Indicador de autonomía financiera municipal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Indicador de ingresos propios por habitante (sin regalías) </t>
+  </si>
+  <si>
+    <t>3. Indicador Ingresos del Impuesto Único sobre Inmuebles (IUSI) respecto a ingresos propios (sin regalías)</t>
+  </si>
+  <si>
+    <t>4. Indicador de la inversión anual en capital fijo por habitante</t>
+  </si>
+  <si>
+    <t>5. Indicador de la inversión anual en capital fijo con ingresos propios</t>
+  </si>
+  <si>
+    <t>6. Indicador de la inversión anual en capital fijo con transferencia</t>
+  </si>
+  <si>
+    <t>7. Indicador de independencia financiera por endeudamiento público</t>
+  </si>
+  <si>
+    <t>Analiza la forma en que la planificación de las municipalidades incide en el desarrollo del municipio en relación con el presupuesto municipal, indagando cómo controla y gestiona el territorio de manera ordenada y cómo aplica en esa planificación la gestión del riesgo.</t>
+  </si>
+  <si>
+    <t>1. Ejecución del Plan Operativo Anual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Presupuesto de egresos relacionado a competencias municipales, vinculadas a prioridades nacionales </t>
+  </si>
+  <si>
+    <t>4. Institucionalización de la gestión ordenada del territorio</t>
+  </si>
+  <si>
+    <t>5. Acciones para la gestión ordenada del territorio</t>
+  </si>
+  <si>
+    <t>6. Análisis de la gestión de riesgo en la formulación de proyectos</t>
+  </si>
+  <si>
+    <t>7. Ingresos por Servicios Ambientales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Relación plan de desarrollo municipal y ordenamiento 
+territorial (PDM-OT), plan estratégico (PEI), plan operativo multianual (POM) y el plan operativo anual (POA). </t>
   </si>
 </sst>
 </file>
@@ -107,18 +204,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -144,7 +235,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -461,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8EF3876-72B3-4ED7-B0A4-294D8F4A2000}">
-  <dimension ref="B2:D8"/>
+  <dimension ref="B1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -473,23 +564,27 @@
     <col min="2" max="2" width="29.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.453125" style="3" customWidth="1"/>
     <col min="4" max="4" width="65.81640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="10.90625" style="1"/>
+    <col min="5" max="5" width="44.6328125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="65" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" ht="65" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C2" s="4"/>
       <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="39" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="39" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>0</v>
@@ -497,51 +592,197 @@
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" ht="78" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="78" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="104" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="D7" s="1"/>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C10" s="1"/>
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="39" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="39" x14ac:dyDescent="0.35">
+      <c r="E12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="39" x14ac:dyDescent="0.35">
+      <c r="E13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="E14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="104" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E16" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="E17" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="39" x14ac:dyDescent="0.35">
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="1"/>
+      <c r="E19" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="E21" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="E22" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="C23" s="1"/>
+      <c r="E23" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="E24" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="52" x14ac:dyDescent="0.35">
+      <c r="B25" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>0</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E26" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="E27" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E28" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E29" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="E30" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E31" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Guatemala/Glosario Ranking Muni_2018_GT.xlsx
+++ b/Guatemala/Glosario Ranking Muni_2018_GT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-MUNI\Guatemala\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7B741A-E4D1-4CE7-958A-31705D79E9DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DEF057-1E08-499E-BA72-A9B2E34BE484}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1D4769EB-C3C3-42EF-8AF0-E54E6B5F48E8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="83">
   <si>
     <t>IGA</t>
   </si>
@@ -63,6 +63,9 @@
     <t>IGF</t>
   </si>
   <si>
+    <t>IGE</t>
+  </si>
+  <si>
     <t>Índice de Gestión Estratégica</t>
   </si>
   <si>
@@ -73,9 +76,6 @@
   </si>
   <si>
     <t>Este índice mide el compromiso de las autoridades municipales por aplicar principios y procedimientos de participación efectiva e incluyente, de la ciudadanía y actores municipales en los procesos de decisión como es la planificación y ejecución de las políticas públicas de desarrollo. También valora políticamente el desempeño del COMUDE como el espacio de discusión de temas relevantes y de rendición de cuentas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El índice general está compuesto por seis índices temáticos que contienen indicadores con igual ponderación, reflejando la misma importancia de cada uno de ellos. Es un resumen de los 31indicadores que ubica a las municipalidades que tienen o están más cerca de las mejores prácticas en todos los temas analizados, y sintetiza el trabajo municipal en materia de gestión para la gobernabilidad. </t>
   </si>
   <si>
     <t xml:space="preserve">Índice General de Gestión Municipal </t>
@@ -182,13 +182,115 @@
   <si>
     <t xml:space="preserve">2. Relación plan de desarrollo municipal y ordenamiento 
 territorial (PDM-OT), plan estratégico (PEI), plan operativo multianual (POM) y el plan operativo anual (POA). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El índice general está compuesto por seis índices temáticos que contienen indicadores con igual ponderación, reflejando la misma importancia de cada uno de ellos. Es un resumen de los 31 indicadores que ubica a las municipalidades que tienen o están más cerca de las mejores prácticas en todos los temas analizados, y sintetiza el trabajo municipal en materia de gestión para la gobernabilidad. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripción </t>
+  </si>
+  <si>
+    <t>Concepto</t>
+  </si>
+  <si>
+    <t>Sigla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código </t>
+  </si>
+  <si>
+    <t>04-01</t>
+  </si>
+  <si>
+    <t>04-02</t>
+  </si>
+  <si>
+    <t>04-03</t>
+  </si>
+  <si>
+    <t>01-01</t>
+  </si>
+  <si>
+    <t>01-02</t>
+  </si>
+  <si>
+    <t>01-03</t>
+  </si>
+  <si>
+    <t>01-04</t>
+  </si>
+  <si>
+    <t>01-05</t>
+  </si>
+  <si>
+    <t>02-01</t>
+  </si>
+  <si>
+    <t>02-02</t>
+  </si>
+  <si>
+    <t>02-03</t>
+  </si>
+  <si>
+    <t>02-04</t>
+  </si>
+  <si>
+    <t>03-01</t>
+  </si>
+  <si>
+    <t>03-02</t>
+  </si>
+  <si>
+    <t>03-03</t>
+  </si>
+  <si>
+    <t>05-01</t>
+  </si>
+  <si>
+    <t>05-02</t>
+  </si>
+  <si>
+    <t>05-03</t>
+  </si>
+  <si>
+    <t>05-04</t>
+  </si>
+  <si>
+    <t>05-05</t>
+  </si>
+  <si>
+    <t>05-06</t>
+  </si>
+  <si>
+    <t>05-07</t>
+  </si>
+  <si>
+    <t>06-01</t>
+  </si>
+  <si>
+    <t>06-02</t>
+  </si>
+  <si>
+    <t>06-03</t>
+  </si>
+  <si>
+    <t>06-04</t>
+  </si>
+  <si>
+    <t>06-05</t>
+  </si>
+  <si>
+    <t>06-06</t>
+  </si>
+  <si>
+    <t>06-07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +301,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -224,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -237,6 +345,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,15 +666,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8EF3876-72B3-4ED7-B0A4-294D8F4A2000}">
-  <dimension ref="B1:E31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E5"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="1"/>
+    <col min="1" max="1" width="10.90625" style="5"/>
     <col min="2" max="2" width="29.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.453125" style="3" customWidth="1"/>
     <col min="4" max="4" width="65.81640625" style="2" customWidth="1"/>
@@ -568,23 +682,41 @@
     <col min="6" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="2:5" ht="65" x14ac:dyDescent="0.35">
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="65" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="39" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="39" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>0</v>
@@ -595,18 +727,54 @@
       <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F3" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="39" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="E4" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="F4" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="39" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="E5" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="78" x14ac:dyDescent="0.35">
+      <c r="F5" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="78" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -614,35 +782,99 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="26" x14ac:dyDescent="0.35">
-      <c r="D7" s="1"/>
+      <c r="F6" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F7" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F8" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="78" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C10" s="1"/>
+      <c r="F9" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="78" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" ht="39" x14ac:dyDescent="0.35">
+      <c r="F10" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="39" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>4</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -655,23 +887,74 @@
       <c r="E11" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" ht="39" x14ac:dyDescent="0.35">
+      <c r="F11" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="39" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E12" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" ht="39" x14ac:dyDescent="0.35">
+      <c r="F12" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="39" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E13" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="F13" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="39" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" ht="104" x14ac:dyDescent="0.35">
+      <c r="F14" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="104" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>5</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
@@ -679,23 +962,59 @@
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F15" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E16" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="F16" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E17" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" ht="39" x14ac:dyDescent="0.35">
+      <c r="F17" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="39" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>6</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
@@ -708,45 +1027,139 @@
       <c r="E18" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="1"/>
+      <c r="F18" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="39" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E19" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F19" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E20" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="F20" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="39" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E21" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="F21" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="39" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E22" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" ht="26" x14ac:dyDescent="0.35">
-      <c r="C23" s="1"/>
+      <c r="F22" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="39" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E23" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="F23" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="39" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E24" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" ht="52" x14ac:dyDescent="0.35">
+      <c r="F24" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="52" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>7</v>
+      </c>
       <c r="B25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>0</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>41</v>
@@ -754,38 +1167,132 @@
       <c r="E25" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F25" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="E26" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="F26" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="52" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>7</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="E27" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F27" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="52" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="E28" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F28" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="52" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="E29" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="F29" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="52" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <v>7</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="E30" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F30" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="52" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="E31" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="F31" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Guatemala/Glosario Ranking Muni_2018_GT.xlsx
+++ b/Guatemala/Glosario Ranking Muni_2018_GT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-MUNI\Guatemala\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paula\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-MUNI\Guatemala\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DEF057-1E08-499E-BA72-A9B2E34BE484}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F447E2-5BDE-4CFA-A365-A564C19E97FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1D4769EB-C3C3-42EF-8AF0-E54E6B5F48E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D4769EB-C3C3-42EF-8AF0-E54E6B5F48E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="84">
   <si>
     <t>IGA</t>
   </si>
@@ -284,6 +275,9 @@
   </si>
   <si>
     <t>06-07</t>
+  </si>
+  <si>
+    <t>Columna1</t>
   </si>
 </sst>
 </file>
@@ -356,7 +350,123 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -367,6 +477,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{031285CF-0659-4143-84EE-EECE17D8BDCC}" name="Glosario_ranking_muni_GT" displayName="Glosario_ranking_muni_GT" ref="A1:F31" totalsRowShown="0">
+  <autoFilter ref="A1:F31" xr:uid="{0B2B00FD-4E31-49F1-BCFE-7573EC74F0FD}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{F0659137-C2F5-497A-8CE5-4EE422B570EA}" name="Columna1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{CFB820B5-EE67-4FB7-B59F-A1A6F222F307}" name="Concepto" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{D011ABFE-4705-4A58-8643-31EDE7EC0A06}" name="Sigla" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{E14DE1B8-7335-49DB-86C3-3538201F7B5C}" name="Descripción " dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{5B8F4BCE-E48D-4500-B133-669306F7B149}" name="Indicadores" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{503FE8DA-0507-41FA-A7A5-B10F957665EB}" name="Código " dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -669,20 +794,23 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="5"/>
-    <col min="2" max="2" width="29.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="65.81640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="44.6328125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.90625" style="1"/>
+    <col min="1" max="1" width="11" style="5" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="65.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="44.5703125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
@@ -699,7 +827,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="65" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -711,7 +839,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="39" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -731,7 +859,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="39" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -751,7 +879,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="39" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -771,7 +899,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="78" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -791,7 +919,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -811,7 +939,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -831,7 +959,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="78" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>3</v>
       </c>
@@ -851,7 +979,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="78" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>3</v>
       </c>
@@ -871,7 +999,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="39" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>4</v>
       </c>
@@ -891,7 +1019,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="39" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>4</v>
       </c>
@@ -911,7 +1039,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="39" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>4</v>
       </c>
@@ -931,7 +1059,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="39" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>4</v>
       </c>
@@ -951,7 +1079,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="104" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="102" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>5</v>
       </c>
@@ -971,7 +1099,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>5</v>
       </c>
@@ -991,7 +1119,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>5</v>
       </c>
@@ -1011,7 +1139,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="39" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>6</v>
       </c>
@@ -1031,7 +1159,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="39" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>6</v>
       </c>
@@ -1051,7 +1179,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>6</v>
       </c>
@@ -1071,7 +1199,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="39" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>6</v>
       </c>
@@ -1091,7 +1219,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="39" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>6</v>
       </c>
@@ -1111,7 +1239,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="39" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>6</v>
       </c>
@@ -1131,7 +1259,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="39" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>6</v>
       </c>
@@ -1151,7 +1279,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="52" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>7</v>
       </c>
@@ -1171,7 +1299,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>7</v>
       </c>
@@ -1191,7 +1319,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="52" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>7</v>
       </c>
@@ -1211,7 +1339,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="52" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>7</v>
       </c>
@@ -1231,7 +1359,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="52" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>7</v>
       </c>
@@ -1251,7 +1379,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="52" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>7</v>
       </c>
@@ -1271,7 +1399,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="52" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>7</v>
       </c>
@@ -1295,5 +1423,8 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Guatemala/Glosario Ranking Muni_2018_GT.xlsx
+++ b/Guatemala/Glosario Ranking Muni_2018_GT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paula\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-MUNI\Guatemala\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F447E2-5BDE-4CFA-A365-A564C19E97FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24605D0C-2140-47C6-B624-058B8EF9C724}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D4769EB-C3C3-42EF-8AF0-E54E6B5F48E8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="87">
   <si>
     <t>IGA</t>
   </si>
@@ -187,7 +187,10 @@
     <t>Sigla</t>
   </si>
   <si>
-    <t xml:space="preserve">Código </t>
+    <t>Columna1</t>
+  </si>
+  <si>
+    <t>Código</t>
   </si>
   <si>
     <t>04-01</t>
@@ -277,7 +280,13 @@
     <t>06-07</t>
   </si>
   <si>
-    <t>Columna1</t>
+    <t>IGGM</t>
+  </si>
+  <si>
+    <t>Compuesto por seis indicadores temáticos: IGA, IPC, IGE, IGF, ISP y IIC.</t>
+  </si>
+  <si>
+    <t>00-00</t>
   </si>
 </sst>
 </file>
@@ -326,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -343,7 +352,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -488,7 +500,7 @@
     <tableColumn id="3" xr3:uid="{D011ABFE-4705-4A58-8643-31EDE7EC0A06}" name="Sigla" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{E14DE1B8-7335-49DB-86C3-3538201F7B5C}" name="Descripción " dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{5B8F4BCE-E48D-4500-B133-669306F7B149}" name="Indicadores" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{503FE8DA-0507-41FA-A7A5-B10F957665EB}" name="Código " dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{503FE8DA-0507-41FA-A7A5-B10F957665EB}" name="Código" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -793,23 +805,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8EF3876-72B3-4ED7-B0A4-294D8F4A2000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="5" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="5" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="65.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="44.5703125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.85546875" style="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>51</v>
@@ -824,7 +837,7 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
@@ -834,9 +847,17 @@
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="D2" s="2" t="s">
         <v>49</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -856,7 +877,7 @@
         <v>27</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -876,7 +897,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -896,7 +917,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
@@ -916,7 +937,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
@@ -936,7 +957,7 @@
         <v>17</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -956,7 +977,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
@@ -976,7 +997,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
@@ -996,7 +1017,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -1016,7 +1037,7 @@
         <v>22</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -1036,7 +1057,7 @@
         <v>23</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.25">
@@ -1056,7 +1077,7 @@
         <v>25</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -1076,7 +1097,7 @@
         <v>24</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="102" x14ac:dyDescent="0.25">
@@ -1096,7 +1117,7 @@
         <v>33</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -1116,7 +1137,7 @@
         <v>32</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.25">
@@ -1136,7 +1157,7 @@
         <v>31</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -1156,7 +1177,7 @@
         <v>34</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -1176,7 +1197,7 @@
         <v>35</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1196,7 +1217,7 @@
         <v>36</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -1216,7 +1237,7 @@
         <v>37</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -1236,7 +1257,7 @@
         <v>38</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -1256,7 +1277,7 @@
         <v>39</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -1276,7 +1297,7 @@
         <v>40</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="51" x14ac:dyDescent="0.25">
@@ -1296,7 +1317,7 @@
         <v>42</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1316,7 +1337,7 @@
         <v>48</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="51" x14ac:dyDescent="0.25">
@@ -1336,7 +1357,7 @@
         <v>43</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="51" x14ac:dyDescent="0.25">
@@ -1356,7 +1377,7 @@
         <v>44</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="51" x14ac:dyDescent="0.25">
@@ -1376,7 +1397,7 @@
         <v>45</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="51" x14ac:dyDescent="0.25">
@@ -1396,7 +1417,7 @@
         <v>46</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="51" x14ac:dyDescent="0.25">
@@ -1416,7 +1437,7 @@
         <v>47</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Guatemala/Glosario Ranking Muni_2018_GT.xlsx
+++ b/Guatemala/Glosario Ranking Muni_2018_GT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paula\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-MUNI\Guatemala\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24605D0C-2140-47C6-B624-058B8EF9C724}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C6F8BC-1CE7-4F14-BD5A-BA10EAB807C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D4769EB-C3C3-42EF-8AF0-E54E6B5F48E8}"/>
+    <workbookView xWindow="3885" yWindow="1530" windowWidth="15375" windowHeight="7875" xr2:uid="{1D4769EB-C3C3-42EF-8AF0-E54E6B5F48E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -190,9 +190,6 @@
     <t>Columna1</t>
   </si>
   <si>
-    <t>Código</t>
-  </si>
-  <si>
     <t>04-01</t>
   </si>
   <si>
@@ -287,6 +284,9 @@
   </si>
   <si>
     <t>00-00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código </t>
   </si>
 </sst>
 </file>
@@ -500,7 +500,7 @@
     <tableColumn id="3" xr3:uid="{D011ABFE-4705-4A58-8643-31EDE7EC0A06}" name="Sigla" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{E14DE1B8-7335-49DB-86C3-3538201F7B5C}" name="Descripción " dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{5B8F4BCE-E48D-4500-B133-669306F7B149}" name="Indicadores" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{503FE8DA-0507-41FA-A7A5-B10F957665EB}" name="Código" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{503FE8DA-0507-41FA-A7A5-B10F957665EB}" name="Código " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -805,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8EF3876-72B3-4ED7-B0A4-294D8F4A2000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -837,7 +837,7 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
@@ -848,16 +848,16 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -877,7 +877,7 @@
         <v>27</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -897,7 +897,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -917,7 +917,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
@@ -937,7 +937,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
@@ -957,7 +957,7 @@
         <v>17</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -977,7 +977,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
@@ -997,7 +997,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
@@ -1017,7 +1017,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -1037,7 +1037,7 @@
         <v>22</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -1057,7 +1057,7 @@
         <v>23</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.25">
@@ -1077,7 +1077,7 @@
         <v>25</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -1097,7 +1097,7 @@
         <v>24</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="102" x14ac:dyDescent="0.25">
@@ -1117,7 +1117,7 @@
         <v>33</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -1137,7 +1137,7 @@
         <v>32</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.25">
@@ -1157,7 +1157,7 @@
         <v>31</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -1177,7 +1177,7 @@
         <v>34</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -1197,7 +1197,7 @@
         <v>35</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1217,7 +1217,7 @@
         <v>36</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -1237,7 +1237,7 @@
         <v>37</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -1257,7 +1257,7 @@
         <v>38</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -1277,7 +1277,7 @@
         <v>39</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -1297,7 +1297,7 @@
         <v>40</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="51" x14ac:dyDescent="0.25">
@@ -1317,7 +1317,7 @@
         <v>42</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1337,7 +1337,7 @@
         <v>48</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="51" x14ac:dyDescent="0.25">
@@ -1357,7 +1357,7 @@
         <v>43</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="51" x14ac:dyDescent="0.25">
@@ -1377,7 +1377,7 @@
         <v>44</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="51" x14ac:dyDescent="0.25">
@@ -1397,7 +1397,7 @@
         <v>45</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="51" x14ac:dyDescent="0.25">
@@ -1417,7 +1417,7 @@
         <v>46</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="51" x14ac:dyDescent="0.25">
@@ -1437,7 +1437,7 @@
         <v>47</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Guatemala/Glosario Ranking Muni_2018_GT.xlsx
+++ b/Guatemala/Glosario Ranking Muni_2018_GT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paula\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-MUNI\Guatemala\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C6F8BC-1CE7-4F14-BD5A-BA10EAB807C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE03569D-F709-430D-854E-3D4A8E0A19FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="1530" windowWidth="15375" windowHeight="7875" xr2:uid="{1D4769EB-C3C3-42EF-8AF0-E54E6B5F48E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D4769EB-C3C3-42EF-8AF0-E54E6B5F48E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -190,103 +190,103 @@
     <t>Columna1</t>
   </si>
   <si>
-    <t>04-01</t>
-  </si>
-  <si>
-    <t>04-02</t>
-  </si>
-  <si>
-    <t>04-03</t>
-  </si>
-  <si>
-    <t>01-01</t>
-  </si>
-  <si>
-    <t>01-02</t>
-  </si>
-  <si>
-    <t>01-03</t>
-  </si>
-  <si>
-    <t>01-04</t>
-  </si>
-  <si>
-    <t>01-05</t>
-  </si>
-  <si>
-    <t>02-01</t>
-  </si>
-  <si>
-    <t>02-02</t>
-  </si>
-  <si>
-    <t>02-03</t>
-  </si>
-  <si>
-    <t>02-04</t>
-  </si>
-  <si>
-    <t>03-01</t>
-  </si>
-  <si>
-    <t>03-02</t>
-  </si>
-  <si>
-    <t>03-03</t>
-  </si>
-  <si>
-    <t>05-01</t>
-  </si>
-  <si>
-    <t>05-02</t>
-  </si>
-  <si>
-    <t>05-03</t>
-  </si>
-  <si>
-    <t>05-04</t>
-  </si>
-  <si>
-    <t>05-05</t>
-  </si>
-  <si>
-    <t>05-06</t>
-  </si>
-  <si>
-    <t>05-07</t>
-  </si>
-  <si>
-    <t>06-01</t>
-  </si>
-  <si>
-    <t>06-02</t>
-  </si>
-  <si>
-    <t>06-03</t>
-  </si>
-  <si>
-    <t>06-04</t>
-  </si>
-  <si>
-    <t>06-05</t>
-  </si>
-  <si>
-    <t>06-06</t>
-  </si>
-  <si>
-    <t>06-07</t>
-  </si>
-  <si>
     <t>IGGM</t>
   </si>
   <si>
     <t>Compuesto por seis indicadores temáticos: IGA, IPC, IGE, IGF, ISP y IIC.</t>
   </si>
   <si>
-    <t>00-00</t>
-  </si>
-  <si>
     <t xml:space="preserve">Código </t>
+  </si>
+  <si>
+    <t>COD 00-00</t>
+  </si>
+  <si>
+    <t>COD 04-01</t>
+  </si>
+  <si>
+    <t>COD 04-02</t>
+  </si>
+  <si>
+    <t>COD 04-03</t>
+  </si>
+  <si>
+    <t>COD 01-01</t>
+  </si>
+  <si>
+    <t>COD 01-02</t>
+  </si>
+  <si>
+    <t>COD 01-03</t>
+  </si>
+  <si>
+    <t>COD 01-04</t>
+  </si>
+  <si>
+    <t>COD 01-05</t>
+  </si>
+  <si>
+    <t>COD 02-01</t>
+  </si>
+  <si>
+    <t>COD 02-02</t>
+  </si>
+  <si>
+    <t>COD 02-03</t>
+  </si>
+  <si>
+    <t>COD 02-04</t>
+  </si>
+  <si>
+    <t>COD 03-01</t>
+  </si>
+  <si>
+    <t>COD 03-02</t>
+  </si>
+  <si>
+    <t>COD 03-03</t>
+  </si>
+  <si>
+    <t>COD 05-01</t>
+  </si>
+  <si>
+    <t>COD 05-02</t>
+  </si>
+  <si>
+    <t>COD 05-03</t>
+  </si>
+  <si>
+    <t>COD 05-04</t>
+  </si>
+  <si>
+    <t>COD 05-05</t>
+  </si>
+  <si>
+    <t>COD 05-06</t>
+  </si>
+  <si>
+    <t>COD 05-07</t>
+  </si>
+  <si>
+    <t>COD 06-01</t>
+  </si>
+  <si>
+    <t>COD 06-02</t>
+  </si>
+  <si>
+    <t>COD 06-03</t>
+  </si>
+  <si>
+    <t>COD 06-04</t>
+  </si>
+  <si>
+    <t>COD 06-05</t>
+  </si>
+  <si>
+    <t>COD 06-06</t>
+  </si>
+  <si>
+    <t>COD 06-07</t>
   </si>
 </sst>
 </file>
@@ -805,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8EF3876-72B3-4ED7-B0A4-294D8F4A2000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -837,7 +837,7 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
@@ -848,16 +848,16 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -877,7 +877,7 @@
         <v>27</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -897,7 +897,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -917,7 +917,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
@@ -937,7 +937,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
@@ -957,7 +957,7 @@
         <v>17</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -977,7 +977,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
@@ -997,7 +997,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
@@ -1017,7 +1017,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -1037,7 +1037,7 @@
         <v>22</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -1057,7 +1057,7 @@
         <v>23</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.25">
@@ -1077,7 +1077,7 @@
         <v>25</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -1097,7 +1097,7 @@
         <v>24</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="102" x14ac:dyDescent="0.25">
@@ -1117,7 +1117,7 @@
         <v>33</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -1137,7 +1137,7 @@
         <v>32</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.25">
@@ -1157,7 +1157,7 @@
         <v>31</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -1177,7 +1177,7 @@
         <v>34</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -1197,7 +1197,7 @@
         <v>35</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1217,7 +1217,7 @@
         <v>36</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -1237,7 +1237,7 @@
         <v>37</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -1257,7 +1257,7 @@
         <v>38</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -1277,7 +1277,7 @@
         <v>39</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -1297,7 +1297,7 @@
         <v>40</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="51" x14ac:dyDescent="0.25">
@@ -1317,7 +1317,7 @@
         <v>42</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1337,7 +1337,7 @@
         <v>48</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="51" x14ac:dyDescent="0.25">
@@ -1357,7 +1357,7 @@
         <v>43</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="51" x14ac:dyDescent="0.25">
@@ -1377,7 +1377,7 @@
         <v>44</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="51" x14ac:dyDescent="0.25">
@@ -1397,7 +1397,7 @@
         <v>45</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="51" x14ac:dyDescent="0.25">
@@ -1417,7 +1417,7 @@
         <v>46</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="51" x14ac:dyDescent="0.25">
@@ -1437,7 +1437,7 @@
         <v>47</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
